--- a/src/main/resources/Billing.xlsx
+++ b/src/main/resources/Billing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M301821\Desktop\3PP\北医\2021.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fengjun/Projects/IdeaProjects/excel-utils/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872231D2-15A0-477E-BA68-11BC7BC26426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF7CA36-7DB1-604D-8B95-A18E6434F430}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="-17780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="375">
   <si>
     <t>SAP Billing</t>
   </si>
@@ -1165,9 +1161,6 @@
   </si>
   <si>
     <t>6171.04</t>
-  </si>
-  <si>
-    <t>GHJZ202108-0041</t>
   </si>
 </sst>
 </file>
@@ -1556,29 +1549,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51:M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1656,15 +1648,9 @@
       <c r="J2" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5">
-        <v>125.1</v>
-      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1703,15 +1689,9 @@
       <c r="J3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5">
-        <v>168.53</v>
-      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" t="s">
         <v>25</v>
       </c>
@@ -1750,15 +1730,9 @@
       <c r="J4" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>182.65</v>
-      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4" t="s">
         <v>25</v>
       </c>
@@ -1797,15 +1771,9 @@
       <c r="J5" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>182.65</v>
-      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5" t="s">
         <v>25</v>
       </c>
@@ -1844,15 +1812,9 @@
       <c r="J6" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>191.32</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" t="s">
         <v>25</v>
       </c>
@@ -1891,15 +1853,9 @@
       <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>229.89</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" t="s">
         <v>25</v>
       </c>
@@ -1938,15 +1894,9 @@
       <c r="J8" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
-        <v>271.10000000000002</v>
-      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" t="s">
         <v>25</v>
       </c>
@@ -1985,15 +1935,9 @@
       <c r="J9" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>275.39999999999998</v>
-      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" t="s">
         <v>25</v>
       </c>
@@ -2032,15 +1976,9 @@
       <c r="J10" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>288.07</v>
-      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" t="s">
         <v>25</v>
       </c>
@@ -2079,15 +2017,9 @@
       <c r="J11" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5">
-        <v>319.43</v>
-      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" t="s">
         <v>25</v>
       </c>
@@ -2126,15 +2058,9 @@
       <c r="J12" t="s">
         <v>264</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
-        <v>337.29</v>
-      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" t="s">
         <v>25</v>
       </c>
@@ -2173,15 +2099,9 @@
       <c r="J13" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>347.12</v>
-      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" t="s">
         <v>25</v>
       </c>
@@ -2220,15 +2140,9 @@
       <c r="J14" t="s">
         <v>315</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>356.04</v>
-      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" t="s">
         <v>25</v>
       </c>
@@ -2267,15 +2181,9 @@
       <c r="J15" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>369.48</v>
-      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" t="s">
         <v>25</v>
       </c>
@@ -2314,15 +2222,9 @@
       <c r="J16" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>401.94</v>
-      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" t="s">
         <v>25</v>
       </c>
@@ -2361,15 +2263,9 @@
       <c r="J17" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>418.64</v>
-      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" t="s">
         <v>25</v>
       </c>
@@ -2408,15 +2304,9 @@
       <c r="J18" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>458.07</v>
-      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" t="s">
         <v>25</v>
       </c>
@@ -2455,15 +2345,9 @@
       <c r="J19" t="s">
         <v>181</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
-        <v>459.04</v>
-      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" t="s">
         <v>25</v>
       </c>
@@ -2502,15 +2386,9 @@
       <c r="J20" t="s">
         <v>272</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5">
-        <v>466.23</v>
-      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" t="s">
         <v>25</v>
       </c>
@@ -2549,15 +2427,9 @@
       <c r="J21" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
-        <v>479.38</v>
-      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
       <c r="N21" t="s">
         <v>25</v>
       </c>
@@ -2596,15 +2468,9 @@
       <c r="J22" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>485.79</v>
-      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
       <c r="N22" t="s">
         <v>25</v>
       </c>
@@ -2643,15 +2509,9 @@
       <c r="J23" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="5">
-        <v>527.30999999999995</v>
-      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
       <c r="N23" t="s">
         <v>25</v>
       </c>
@@ -2690,15 +2550,9 @@
       <c r="J24" t="s">
         <v>352</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
-        <v>543.42999999999995</v>
-      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24" t="s">
         <v>25</v>
       </c>
@@ -2737,15 +2591,9 @@
       <c r="J25" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="M25" s="5">
-        <v>573.87</v>
-      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25" t="s">
         <v>25</v>
       </c>
@@ -2784,15 +2632,9 @@
       <c r="J26" t="s">
         <v>307</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5">
-        <v>612.96</v>
-      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="N26" t="s">
         <v>25</v>
       </c>
@@ -2831,15 +2673,9 @@
       <c r="J27" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5">
-        <v>626.16999999999996</v>
-      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27" t="s">
         <v>25</v>
       </c>
@@ -2878,15 +2714,9 @@
       <c r="J28" t="s">
         <v>220</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
-      </c>
-      <c r="M28" s="5">
-        <v>667.74</v>
-      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" t="s">
         <v>25</v>
       </c>
@@ -2925,15 +2755,9 @@
       <c r="J29" t="s">
         <v>130</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5">
-        <v>710.19</v>
-      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29" t="s">
         <v>25</v>
       </c>
@@ -2972,15 +2796,9 @@
       <c r="J30" t="s">
         <v>284</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1</v>
-      </c>
-      <c r="M30" s="5">
-        <v>725.46</v>
-      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="N30" t="s">
         <v>25</v>
       </c>
@@ -3019,15 +2837,9 @@
       <c r="J31" t="s">
         <v>330</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5">
-        <v>767.33</v>
-      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" t="s">
         <v>25</v>
       </c>
@@ -3066,15 +2878,9 @@
       <c r="J32" t="s">
         <v>138</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L32" s="5">
-        <v>1</v>
-      </c>
-      <c r="M32" s="5">
-        <v>780.41</v>
-      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
       <c r="N32" t="s">
         <v>25</v>
       </c>
@@ -3113,15 +2919,9 @@
       <c r="J33" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5">
-        <v>955.57</v>
-      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="N33" t="s">
         <v>25</v>
       </c>
@@ -3160,15 +2960,9 @@
       <c r="J34" t="s">
         <v>291</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L34" s="5">
-        <v>1</v>
-      </c>
-      <c r="M34" s="5">
-        <v>1097.49</v>
-      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34" t="s">
         <v>25</v>
       </c>
@@ -3207,15 +3001,9 @@
       <c r="J35" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L35" s="5">
-        <v>1</v>
-      </c>
-      <c r="M35" s="5">
-        <v>1238.79</v>
-      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
       <c r="N35" t="s">
         <v>25</v>
       </c>
@@ -3254,15 +3042,9 @@
       <c r="J36" t="s">
         <v>166</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L36" s="5">
-        <v>1</v>
-      </c>
-      <c r="M36" s="5">
-        <v>1347.58</v>
-      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
       <c r="N36" t="s">
         <v>25</v>
       </c>
@@ -3301,15 +3083,9 @@
       <c r="J37" t="s">
         <v>158</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-      <c r="M37" s="5">
-        <v>1354.66</v>
-      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
       <c r="N37" t="s">
         <v>25</v>
       </c>
@@ -3348,15 +3124,9 @@
       <c r="J38" t="s">
         <v>337</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L38" s="5">
-        <v>1</v>
-      </c>
-      <c r="M38" s="5">
-        <v>1428.12</v>
-      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
       <c r="N38" t="s">
         <v>25</v>
       </c>
@@ -3395,15 +3165,9 @@
       <c r="J39" t="s">
         <v>299</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L39" s="5">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5">
-        <v>1791.3</v>
-      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
       <c r="N39" t="s">
         <v>25</v>
       </c>
@@ -3442,15 +3206,9 @@
       <c r="J40" t="s">
         <v>115</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L40" s="5">
-        <v>1</v>
-      </c>
-      <c r="M40" s="5">
-        <v>2078.62</v>
-      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
       <c r="N40" t="s">
         <v>25</v>
       </c>
@@ -3489,15 +3247,9 @@
       <c r="J41" t="s">
         <v>241</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="5">
-        <v>2</v>
-      </c>
-      <c r="M41" s="5">
-        <v>2220.83</v>
-      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
       <c r="N41" t="s">
         <v>25</v>
       </c>
@@ -3536,15 +3288,9 @@
       <c r="J42" t="s">
         <v>234</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L42" s="5">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5">
-        <v>2451.1999999999998</v>
-      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
       <c r="N42" t="s">
         <v>25</v>
       </c>
@@ -3583,15 +3329,9 @@
       <c r="J43" t="s">
         <v>122</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="5">
-        <v>1</v>
-      </c>
-      <c r="M43" s="5">
-        <v>3375.32</v>
-      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
       <c r="N43" t="s">
         <v>25</v>
       </c>
@@ -3630,15 +3370,9 @@
       <c r="J44" t="s">
         <v>246</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L44" s="5">
-        <v>2</v>
-      </c>
-      <c r="M44" s="5">
-        <v>3480.57</v>
-      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
       <c r="N44" t="s">
         <v>25</v>
       </c>
@@ -3677,15 +3411,9 @@
       <c r="J45" t="s">
         <v>56</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L45" s="5">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5">
-        <v>3655.86</v>
-      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
       <c r="N45" t="s">
         <v>25</v>
       </c>
@@ -3724,15 +3452,9 @@
       <c r="J46" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L46" s="5">
-        <v>1</v>
-      </c>
-      <c r="M46" s="5">
-        <v>3655.86</v>
-      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
       <c r="N46" t="s">
         <v>25</v>
       </c>
@@ -3771,15 +3493,9 @@
       <c r="J47" t="s">
         <v>63</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L47" s="5">
-        <v>1</v>
-      </c>
-      <c r="M47" s="5">
-        <v>3932.24</v>
-      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
       <c r="N47" t="s">
         <v>25</v>
       </c>
@@ -3818,15 +3534,9 @@
       <c r="J48" t="s">
         <v>226</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L48" s="5">
-        <v>1</v>
-      </c>
-      <c r="M48" s="5">
-        <v>5576.88</v>
-      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
       <c r="N48" t="s">
         <v>25</v>
       </c>
@@ -3865,15 +3575,9 @@
       <c r="J49" t="s">
         <v>205</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L49" s="5">
-        <v>2</v>
-      </c>
-      <c r="M49" s="5">
-        <v>7460.17</v>
-      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
       <c r="N49" t="s">
         <v>25</v>
       </c>
@@ -3912,15 +3616,8 @@
       <c r="J50" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L50" s="5">
-        <v>1</v>
-      </c>
-      <c r="M50" s="5">
-        <v>429.58</v>
-      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
       <c r="N50" s="6" t="s">
         <v>25</v>
       </c>
@@ -3959,15 +3656,9 @@
       <c r="J51" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0.2097</v>
-      </c>
-      <c r="M51" s="5">
-        <v>1294.07</v>
-      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
       <c r="N51" s="6" t="s">
         <v>25</v>
       </c>
@@ -3976,7 +3667,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O49">
+  <sortState ref="A3:O49">
     <sortCondition ref="M1:M49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
